--- a/outputWB.xlsx
+++ b/outputWB.xlsx
@@ -1,109 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roeelandesman/Desktop/wordCount/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF49F20-770C-374F-A54A-A14C2A840A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="FrequencyChart" sheetId="1" r:id="rId1"/>
+    <sheet name="FrequencyChart" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -119,24 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -424,208 +340,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Old</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>61</v>
+      </c>
+      <c r="M2" t="n">
+        <v>108</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61</v>
+      </c>
+      <c r="O2" t="n">
+        <v>108</v>
+      </c>
+      <c r="P2" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>82</v>
+      </c>
+      <c r="M3" t="n">
+        <v>165</v>
+      </c>
+      <c r="N3" t="n">
+        <v>95</v>
+      </c>
+      <c r="O3" t="n">
+        <v>168</v>
+      </c>
+      <c r="P3" t="n">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputWB.xlsx
+++ b/outputWB.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -507,19 +507,19 @@
         <v>63</v>
       </c>
       <c r="Q2" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -574,19 +574,19 @@
         <v>92</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
